--- a/example/runner/testFiles/setup.xlsx
+++ b/example/runner/testFiles/setup.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>User Story</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>Setup creation</t>
-  </si>
-  <si>
-    <t>given valid setup name</t>
-  </si>
-  <si>
-    <t>attempting to create a setup</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -82,28 +76,84 @@
 </t>
   </si>
   <si>
-    <t>attempting to create a setup with already existsing setup name</t>
-  </si>
-  <si>
-    <t>setup creation is successful</t>
-  </si>
-  <si>
-    <t>setup creation will fail</t>
-  </si>
-  <si>
     <t>{ 
 "module": "./src/validator/test_fw.js", 
 "func": "testCreateSetup"
 }</t>
+  </si>
+  <si>
+    <t>{
+"setup": "demo"
+}</t>
+  </si>
+  <si>
+    <t>{
+"setup": "altiostar@setup"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "response": "You can use upper and lowercase letters, numbers, “.” (dot), and “_” (underscore) symbols."
+}
+</t>
+  </si>
+  <si>
+    <t>Valid setup name</t>
+  </si>
+  <si>
+    <t>Invalid setup name</t>
+  </si>
+  <si>
+    <t>Attempting to create a setup</t>
+  </si>
+  <si>
+    <t>Attempting to create a setup with already existsing setup name</t>
+  </si>
+  <si>
+    <t>Setup creation is successful</t>
+  </si>
+  <si>
+    <t>Setup creation will fail</t>
+  </si>
+  <si>
+    <t>Setup creation will fail with error message</t>
+  </si>
+  <si>
+    <t>{
+"setup": ""
+}</t>
+  </si>
+  <si>
+    <t>Empty setup name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "response": "Setup name is required"
+}
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -161,18 +211,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -458,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,23 +570,23 @@
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>9</v>
@@ -543,25 +599,112 @@
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/example/runner/testFiles/setup.xlsx
+++ b/example/runner/testFiles/setup.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>User Story</t>
   </si>
@@ -131,36 +131,39 @@
   "response": "Setup name is required"
 }
 </t>
+  </si>
+  <si>
+    <t>Valid alphanumeric setup name</t>
+  </si>
+  <si>
+    <t>{
+"setup": "test_setup123"
+}</t>
+  </si>
+  <si>
+    <t>Valid numeric setup name</t>
+  </si>
+  <si>
+    <t>{
+"setup": "100001"
+}</t>
+  </si>
+  <si>
+    <t>Valid alphabets setup name</t>
+  </si>
+  <si>
+    <t>{
+"setup": "auto_demo1"
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -176,8 +179,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,26 +221,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,27 +518,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.8984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -563,24 +567,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="41.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -592,27 +596,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>14</v>
@@ -621,24 +625,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -650,27 +654,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>27</v>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>14</v>
@@ -679,32 +683,90 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/example/runner/testFiles/setup.xlsx
+++ b/example/runner/testFiles/setup.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>User Story</t>
   </si>
@@ -63,11 +63,6 @@
   "response": "Failed to create setup"
 }
 </t>
-  </si>
-  <si>
-    <t>{
-"setup": "test_setup"
-}</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -521,7 +516,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -575,22 +570,22 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>9</v>
@@ -604,22 +599,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>9</v>
@@ -633,22 +628,22 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>9</v>
@@ -662,22 +657,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>9</v>
@@ -691,22 +686,22 @@
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>9</v>
@@ -720,22 +715,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>9</v>
@@ -749,22 +744,22 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>9</v>
